--- a/data/case1/5/V1_6.xlsx
+++ b/data/case1/5/V1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999156557495</v>
+        <v>0.9999999914007518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99476557747163363</v>
+        <v>0.99475998531723842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97635152611468978</v>
+        <v>0.97631595320642628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96964934225171828</v>
+        <v>0.9695916255189081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95995331776790216</v>
+        <v>0.95987275642605563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93700248037069001</v>
+        <v>0.93685751408343576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93703874005875731</v>
+        <v>0.93685395429274809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93514097797214724</v>
+        <v>0.9349218924990641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93718036533586102</v>
+        <v>0.93688932201457686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94018794262925387</v>
+        <v>0.93982413047881463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94056919767316738</v>
+        <v>0.94019577070061244</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94155340717041591</v>
+        <v>0.94116162545614968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95063008516906833</v>
+        <v>0.95012825561264647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.94906610621951981</v>
+        <v>0.94861238382070612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.94918733105623287</v>
+        <v>0.94877363503023693</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95004615841068318</v>
+        <v>0.94967712874654819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.96103311147855974</v>
+        <v>0.96074419423054658</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.96767552613884744</v>
+        <v>0.96741044998109249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99136771000757817</v>
+        <v>0.99136034897723713</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96338617944578786</v>
+        <v>0.96336468850113599</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.95582445817745976</v>
+        <v>0.95579621302537632</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.95455994082313311</v>
+        <v>0.95453169604970123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96785853484611861</v>
+        <v>0.96782268920439329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95173676234450166</v>
+        <v>0.95169971525483288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94223637713252639</v>
+        <v>0.94219818322133853</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93334652871071544</v>
+        <v>0.93320155407963146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92849933030357024</v>
+        <v>0.92835434160491004</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90702436615134796</v>
+        <v>0.9068793312410155</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8917523239602525</v>
+        <v>0.89160727939589224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88518182651071908</v>
+        <v>0.88503678273418274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.87752805896632058</v>
+        <v>0.87738302234042753</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.87584876609574125</v>
+        <v>0.87570373151831904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.87532876944595317</v>
+        <v>0.87518373532537241</v>
       </c>
     </row>
   </sheetData>
